--- a/src/assets/empty/faang_experiment.xlsx
+++ b/src/assets/empty/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/empty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59CE7C6-4181-D941-A1E0-BDBCDC47D19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EC4B7-E197-9F46-95D9-DCA4568EBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="13" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="28800" yWindow="-640" windowWidth="38400" windowHeight="21100" activeTab="11" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="chip-seq input dna" sheetId="8" r:id="rId9"/>
     <sheet name="chip-seq dna-binding proteins" sheetId="9" r:id="rId10"/>
     <sheet name="bs-seq" sheetId="6" r:id="rId11"/>
-    <sheet name="atac-seq" sheetId="7" r:id="rId12"/>
-    <sheet name="scrna-seq" sheetId="14" r:id="rId13"/>
-    <sheet name="cage-seq" sheetId="15" r:id="rId14"/>
-    <sheet name="faang_field_values" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="em-seq" sheetId="16" r:id="rId12"/>
+    <sheet name="atac-seq" sheetId="7" r:id="rId13"/>
+    <sheet name="scrna-seq" sheetId="14" r:id="rId14"/>
+    <sheet name="cage-seq" sheetId="15" r:id="rId15"/>
+    <sheet name="faang_field_values" sheetId="2" state="hidden" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="322">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1008,6 +1009,12 @@
   </si>
   <si>
     <t>Restriction Enzyme Target Sequence</t>
+  </si>
+  <si>
+    <t>Enzymatic Methylation Conversion Protocol</t>
+  </si>
+  <si>
+    <t>Enzymatic Methylation Conversion Percent</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1098,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1862,6 +1869,151 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF0BD7B-344D-684C-9B7E-439F085A320C}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F024D0-A71F-1D4F-B7B8-1935431836D0}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -2021,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF2441-AB9C-F644-90EE-34F00FC128F1}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
@@ -2201,11 +2353,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97421E41-8CEC-7C40-9236-96710DA47BAA}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2357,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC3F93-CB0B-BF48-9B11-5793D4DCF38D}">
   <dimension ref="A1:BB1000"/>
   <sheetViews>

--- a/src/assets/empty/faang_experiment.xlsx
+++ b/src/assets/empty/faang_experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/empty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3EC4B7-E197-9F46-95D9-DCA4568EBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C303C-74AB-FC42-B82E-E9D7F991BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-640" windowWidth="38400" windowHeight="21100" activeTab="11" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="28800" yWindow="-640" windowWidth="38400" windowHeight="21100" activeTab="14" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -972,9 +972,6 @@
     <t>Amplification Method</t>
   </si>
   <si>
-    <t>Amplification Cycle</t>
-  </si>
-  <si>
     <t>End Bias</t>
   </si>
   <si>
@@ -990,12 +987,6 @@
     <t>Sequencing Protocol</t>
   </si>
   <si>
-    <t>RNA purity 260:280 ratio</t>
-  </si>
-  <si>
-    <t>RNA purity 260:230 ratio</t>
-  </si>
-  <si>
     <t>CAGE Protocol</t>
   </si>
   <si>
@@ -1015,6 +1006,15 @@
   </si>
   <si>
     <t>Enzymatic Methylation Conversion Percent</t>
+  </si>
+  <si>
+    <t>RNA purity 260-280 ratio</t>
+  </si>
+  <si>
+    <t>RNA purity 260-230 ratio</t>
+  </si>
+  <si>
+    <t>Amplification Cycles</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF0BD7B-344D-684C-9B7E-439F085A320C}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2002,10 +2002,10 @@
         <v>81</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF2441-AB9C-F644-90EE-34F00FC128F1}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2211,7 +2213,7 @@
     <col min="28" max="28" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -2219,7 +2221,7 @@
     <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="22" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2315,34 +2317,34 @@
         <v>306</v>
       </c>
       <c r="AE1" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>69</v>
@@ -2357,7 +2359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97421E41-8CEC-7C40-9236-96710DA47BAA}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2480,25 +2484,25 @@
         <v>87</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>69</v>

--- a/src/assets/empty/faang_experiment.xlsx
+++ b/src/assets/empty/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/empty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C303C-74AB-FC42-B82E-E9D7F991BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95E349F-7C0E-6347-962E-4D664BD3E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-640" windowWidth="38400" windowHeight="21100" activeTab="14" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="323">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>Amplification Cycles</t>
+  </si>
+  <si>
+    <t>Adapter Step</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="limitedValuesList"/>
@@ -1487,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38584B3-9902-4E4A-AF0D-04428F33785F}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,17 +1526,18 @@
     <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,31 +1623,34 @@
         <v>83</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2359,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97421E41-8CEC-7C40-9236-96710DA47BAA}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -8536,10 +8543,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD49F3-4725-E748-A029-B6B285E09FD7}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8572,11 +8579,12 @@
     <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8662,13 +8670,16 @@
         <v>83</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/src/assets/empty/faang_experiment.xlsx
+++ b/src/assets/empty/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/empty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95E349F-7C0E-6347-962E-4D664BD3E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9844A9F-709E-054F-8468-A11C88C54A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="324">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>Adapter Step</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
   </si>
 </sst>
 </file>
@@ -2522,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC3F93-CB0B-BF48-9B11-5793D4DCF38D}">
-  <dimension ref="A1:BB1000"/>
+  <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,7 +3042,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -3202,8 +3205,11 @@
       <c r="BB17" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -3332,18 +3338,18 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4313,7 +4319,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nbWpHRhNtjHyFXOZcT4N3EthZhZMpDuczJXk7PosX/sQ7EW8HBDaLBnNNwFiHRFv4EislTLdsF92vPYw6qcRyg==" saltValue="MrfqNx8AqNkPXQSuiEXwSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sAuiyFEGJJ1sKigCSPZwC7GiIGVLwfMRquQSiZucDzFMEd4LyTzcSo4jqfoCzIgaCzI1iNGljxasutRFlvdT1A==" saltValue="99lYszZxeigXcrEyiP+b9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4474,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F098638-7041-8742-A382-2ACA2B20888B}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5569,7 +5575,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{8A85B586-78C5-3A4F-82C3-CA4CF7CE4605}">
           <x14:formula1>
             <xm:f>faang_field_values!$A$12:$AJ$12</xm:f>
@@ -5604,7 +5610,13 @@
           <x14:formula1>
             <xm:f>faang_field_values!$A$17:$BB$17</xm:f>
           </x14:formula1>
-          <xm:sqref>O3:O61 O2</xm:sqref>
+          <xm:sqref>O3:O61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{6E48A385-1211-CF4E-8AE0-ACA32D191723}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$17:$BC$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8545,7 +8557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD49F3-4725-E748-A029-B6B285E09FD7}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
